--- a/ResultadoEleicoesDistritos/BRAGANÇA_MIRANDA DO DOURO.xlsx
+++ b/ResultadoEleicoesDistritos/BRAGANÇA_MIRANDA DO DOURO.xlsx
@@ -597,64 +597,64 @@
         <v>2098</v>
       </c>
       <c r="H2" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="J2" t="n">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="M2" t="n">
         <v>14</v>
       </c>
       <c r="N2" t="n">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>93</v>
+      </c>
+      <c r="T2" t="n">
+        <v>176</v>
+      </c>
+      <c r="U2" t="n">
         <v>15</v>
       </c>
-      <c r="S2" t="n">
-        <v>85</v>
-      </c>
-      <c r="T2" t="n">
-        <v>160</v>
-      </c>
-      <c r="U2" t="n">
-        <v>7</v>
-      </c>
       <c r="V2" t="n">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1345</v>
+        <v>1370</v>
       </c>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
